--- a/6_Webscraping/results/bom_daily_rate.xlsx
+++ b/6_Webscraping/results/bom_daily_rate.xlsx
@@ -70,7 +70,7 @@
     <t>2,630.40</t>
   </si>
   <si>
-    <t>2,849.55</t>
+    <t>2,849.87</t>
   </si>
   <si>
     <t>2,630.93</t>
